--- a/RiverArchitect/ProjectMaker/.templates/REACH_stn_vii_TEMPLATE/REACH_stn_assessment_vii.xlsx
+++ b/RiverArchitect/ProjectMaker/.templates/REACH_stn_vii_TEMPLATE/REACH_stn_assessment_vii.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RiverArchitect4Publishing\ProjectMaker\.templates\REACH_stn_vii_TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RiverArchitect\ProjectMaker\.templates\REACH_stn_vii_TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="costs (SI metric)" sheetId="5" r:id="rId1"/>
@@ -505,13 +505,6 @@
 Zeh (2007)</t>
   </si>
   <si>
-    <t>Net gain in WUA (ac/yr):</t>
-  </si>
-  <si>
-    <t>Project return
-(US $ per ac net gain in WUA)</t>
-  </si>
-  <si>
     <t>Unit System: U.S. Customary</t>
   </si>
   <si>
@@ -528,13 +521,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>Project return
-(US $ per m² net gain in WUA)</t>
-  </si>
-  <si>
-    <t>Net gain in WUA (m²/yr):</t>
   </si>
   <si>
     <t>Bioengineering (stabilization)</t>
@@ -567,6 +553,20 @@
   </si>
   <si>
     <t>Generated  with the RiverArchitect's ModifyTerrain module</t>
+  </si>
+  <si>
+    <t>Project return
+(US $ per m² net gain in AUA)</t>
+  </si>
+  <si>
+    <t>Net gain in AUA (m²/yr):</t>
+  </si>
+  <si>
+    <t>Project return
+(US $ per ac net gain in AUA)</t>
+  </si>
+  <si>
+    <t>Net gain in AUA (ac/yr):</t>
   </si>
 </sst>
 </file>
@@ -1888,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1910,7 +1910,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="143" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="144" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I2" s="146" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="150" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="151"/>
       <c r="G3" s="99"/>
@@ -2023,7 +2023,7 @@
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F7" s="127">
         <f>from_geodata!C4</f>
@@ -2047,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>17</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="12" spans="2:11" s="139" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="155" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -2120,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="127">
         <f>F13*log_length</f>
@@ -2217,7 +2217,7 @@
         <v>120</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F16" s="126">
         <f>from_geodata!C13</f>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="17" spans="2:9" s="130" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="154" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="153"/>
       <c r="D17" s="153"/>
@@ -2312,7 +2312,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="108">
@@ -2335,7 +2335,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="108">
@@ -2358,7 +2358,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F23" s="126">
         <f>from_geodata!C8</f>
@@ -2384,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" s="126">
         <f>from_geodata!C7</f>
@@ -2410,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" s="128">
         <f>from_geodata!C5</f>
@@ -2434,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" s="128">
         <f>from_geodata!C6</f>
@@ -2485,7 +2485,7 @@
         <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="117">
@@ -2508,7 +2508,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="117">
@@ -2532,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="117">
@@ -2556,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="126">
         <f>from_geodata!C16</f>
@@ -2583,7 +2583,7 @@
         <v>140</v>
       </c>
       <c r="E33" s="65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F33" s="126">
         <f>from_geodata!C12</f>
@@ -2636,7 +2636,7 @@
         <v>0.93</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F36" s="52"/>
       <c r="G36" s="108">
@@ -2658,7 +2658,7 @@
         <v>1500</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" s="66"/>
       <c r="G37" s="115">
@@ -2706,7 +2706,7 @@
         <v>200</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F40" s="52"/>
       <c r="G40" s="108">
@@ -2727,7 +2727,7 @@
         <v>1500</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="108">
@@ -2748,7 +2748,7 @@
         <v>45</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="117">
@@ -2771,7 +2771,7 @@
         <v>140</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="117">
@@ -2792,7 +2792,7 @@
         <v>275</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="117">
@@ -2813,7 +2813,7 @@
         <v>850</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="117">
@@ -2834,7 +2834,7 @@
         <v>1250</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="117">
@@ -2856,7 +2856,7 @@
         <v>3.0623138000000005</v>
       </c>
       <c r="E47" s="65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F47" s="66"/>
       <c r="G47" s="115">
@@ -3096,7 +3096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
@@ -3118,7 +3118,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="143" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="144" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I2" s="146" t="str">
         <f>IF(NOT(OR(ISBLANK(G2), ISBLANK(G3))),G2/G3,"")</f>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="150" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F3" s="151"/>
       <c r="G3" s="99"/>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="12" spans="2:11" s="91" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="155" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="17" spans="2:9" s="90" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="154" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="153"/>
       <c r="D17" s="153"/>
@@ -4366,7 +4366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -4386,7 +4386,7 @@
         <v>96</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" s="167"/>
       <c r="E2" s="167"/>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C3" s="169"/>
       <c r="D3" s="169"/>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="94" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="94" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
